--- a/Tools/Luban/Datas/Characters.xlsx
+++ b/Tools/Luban/Datas/Characters.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEB3A7B-A756-4F0C-8AD0-F87050888937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB05CBB-2168-41F8-8F94-DD1170DFBD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>##var</t>
   </si>
@@ -92,6 +92,22 @@
   </si>
   <si>
     <t>Undead</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stats</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_health</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatsInfo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -197,11 +213,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -234,6 +263,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,7 +595,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -562,7 +603,8 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.109375" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="6" width="15.77734375" style="9" customWidth="1"/>
+    <col min="4" max="5" width="15.77734375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="20" style="9" customWidth="1"/>
     <col min="7" max="7" width="15" style="9" customWidth="1"/>
     <col min="8" max="8" width="14.88671875" style="9" customWidth="1"/>
     <col min="9" max="9" width="15.109375" style="9" customWidth="1"/>
@@ -578,7 +620,7 @@
     <col min="19" max="19" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" ht="18.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -594,8 +636,10 @@
       <c r="E1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="F1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="20"/>
       <c r="H1" s="11"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -630,8 +674,10 @@
       <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="F2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="18"/>
       <c r="H2" s="13"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -658,8 +704,8 @@
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="13"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -694,8 +740,12 @@
       <c r="E4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" s="13"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -728,8 +778,12 @@
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="15"/>
+      <c r="F5" s="3">
+        <v>100</v>
+      </c>
+      <c r="G5" s="15">
+        <v>300</v>
+      </c>
       <c r="H5" s="15"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -762,8 +816,12 @@
       <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="15"/>
+      <c r="F6" s="3">
+        <v>100</v>
+      </c>
+      <c r="G6" s="15">
+        <v>300</v>
+      </c>
       <c r="H6" s="15"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -3227,6 +3285,11 @@
       <c r="X100" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Tools/Luban/Datas/Characters.xlsx
+++ b/Tools/Luban/Datas/Characters.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB05CBB-2168-41F8-8F94-DD1170DFBD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5953225D-4CE2-47CA-BC20-DD059F29EDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -88,10 +88,6 @@
   </si>
   <si>
     <t>Base</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Undead</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -595,7 +591,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:G2"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -637,7 +633,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="20"/>
       <c r="H1" s="11"/>
@@ -675,7 +671,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="13"/>
@@ -741,10 +737,10 @@
         <v>8</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="7"/>
@@ -814,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>

--- a/Tools/Luban/Datas/Characters.xlsx
+++ b/Tools/Luban/Datas/Characters.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5953225D-4CE2-47CA-BC20-DD059F29EDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7769F54-9380-4375-B146-0E75C87CEE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>##var</t>
   </si>
@@ -71,23 +71,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>c_guide</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>c_player</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Player</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guide</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -104,6 +92,14 @@
   </si>
   <si>
     <t>StatsInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -271,6 +267,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,7 +593,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -630,10 +632,10 @@
         <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G1" s="20"/>
       <c r="H1" s="11"/>
@@ -671,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="13"/>
@@ -700,8 +702,12 @@
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
+      <c r="F3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="H3" s="13"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -737,10 +743,10 @@
         <v>8</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="7"/>
@@ -763,16 +769,16 @@
     <row r="5" spans="1:24" ht="30.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="14"/>
       <c r="B5" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3">
         <v>100</v>
@@ -800,24 +806,12 @@
     </row>
     <row r="6" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
-      <c r="B6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="3">
-        <v>100</v>
-      </c>
-      <c r="G6" s="15">
-        <v>300</v>
-      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -3281,8 +3275,7 @@
       <c r="X100" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F3:G3"/>
+  <mergeCells count="2">
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F1:G1"/>
   </mergeCells>

--- a/Tools/Luban/Datas/Characters.xlsx
+++ b/Tools/Luban/Datas/Characters.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7769F54-9380-4375-B146-0E75C87CEE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9488EBE5-C134-473E-B7CC-B13D436BA7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>##var</t>
   </si>
@@ -83,14 +83,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>max_health</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>StatsInfo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -100,6 +92,22 @@
   </si>
   <si>
     <t>scene_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>strength</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intelligence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>willpower</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dexterity</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -218,11 +226,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -257,6 +276,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -268,11 +293,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,7 +618,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -601,8 +626,7 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.109375" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="5" width="15.77734375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="20" style="9" customWidth="1"/>
+    <col min="4" max="6" width="15.77734375" style="9" customWidth="1"/>
     <col min="7" max="7" width="15" style="9" customWidth="1"/>
     <col min="8" max="8" width="14.88671875" style="9" customWidth="1"/>
     <col min="9" max="9" width="15.109375" style="9" customWidth="1"/>
@@ -632,14 +656,14 @@
         <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="8"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -672,12 +696,12 @@
       <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>15</v>
+      <c r="F2" s="19" t="s">
+        <v>13</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -702,14 +726,18 @@
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
-      <c r="F3" s="21" t="s">
-        <v>16</v>
+      <c r="F3" s="17" t="s">
+        <v>14</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>16</v>
+      <c r="G3" s="18" t="s">
+        <v>14</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -743,13 +771,17 @@
         <v>8</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="7"/>
+      <c r="H4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -781,13 +813,17 @@
         <v>11</v>
       </c>
       <c r="F5" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G5" s="15">
-        <v>300</v>
+        <v>10</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="4"/>
+      <c r="H5" s="15">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4">
+        <v>10</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="3"/>
@@ -3276,8 +3312,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
